--- a/Data_Ryan/Inflation_forecasts.xlsx
+++ b/Data_Ryan/Inflation_forecasts.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/Backtesting for Portfolio Management/PMP/Data_Ryan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/PMP Github/PMP_December_8/Data_Ryan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F4C670-A0FD-104E-AABF-21168EB8473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3A572-17F7-2E4D-A476-166C3DFF3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="3820" windowWidth="25640" windowHeight="14440" xr2:uid="{1EF3672D-B0DC-5042-8949-7E5FC9808BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflation_forecasts" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inflation_forecasts!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +58,17 @@
   <si>
     <t>US</t>
   </si>
+  <si>
+    <t>EM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -537,10 +546,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,13 +926,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7F563-6F1A-9448-A283-9CFA32C90035}">
-  <dimension ref="A1:G671"/>
+  <dimension ref="A1:H671"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,8 +957,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>25569</v>
       </c>
@@ -959,7 +975,7 @@
         <v>7.7512700000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>25600</v>
       </c>
@@ -973,7 +989,7 @@
         <v>7.7512700000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>25628</v>
       </c>
@@ -987,7 +1003,7 @@
         <v>7.7171000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>25659</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>7.6836199999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>25689</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>7.2455800000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>25720</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>7.0669899999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>25750</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>3.15789E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>25781</v>
       </c>
@@ -1063,7 +1079,7 @@
         <v>3.15789E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>25812</v>
       </c>
@@ -1080,7 +1096,7 @@
         <v>3.15789E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>25842</v>
       </c>
@@ -1097,7 +1113,7 @@
         <v>5.2631699999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>25873</v>
       </c>
@@ -1114,7 +1130,7 @@
         <v>5.2631699999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>25903</v>
       </c>
@@ -1131,7 +1147,7 @@
         <v>5.2631699999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>25934</v>
       </c>
@@ -1148,7 +1164,7 @@
         <v>5.2083299999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>25965</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>5.2083299999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>25993</v>
       </c>
@@ -6253,7 +6269,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>34304</v>
       </c>
@@ -6273,7 +6289,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>34335</v>
       </c>
@@ -6292,8 +6308,11 @@
       <c r="G290">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H290" s="3">
+        <v>0.21099989999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>34366</v>
       </c>
@@ -6312,8 +6331,11 @@
       <c r="G291">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291" s="3">
+        <v>0.23199990000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>34394</v>
       </c>
@@ -6332,8 +6354,11 @@
       <c r="G292">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292" s="3">
+        <v>0.22399999999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>34425</v>
       </c>
@@ -6352,8 +6377,11 @@
       <c r="G293">
         <v>3.2300000000000002E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293" s="3">
+        <v>0.2169999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>34455</v>
       </c>
@@ -6372,8 +6400,11 @@
       <c r="G294">
         <v>3.2300000000000002E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294" s="3">
+        <v>0.21299990000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>34486</v>
       </c>
@@ -6392,8 +6423,11 @@
       <c r="G295">
         <v>3.2300000000000002E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H295" s="3">
+        <v>0.22599989999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>34516</v>
       </c>
@@ -6412,8 +6446,11 @@
       <c r="G296">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>34547</v>
       </c>
@@ -6432,8 +6469,11 @@
       <c r="G297">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297" s="3">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>34578</v>
       </c>
@@ -6452,8 +6492,11 @@
       <c r="G298">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298" s="3">
+        <v>0.27300020000000003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>34608</v>
       </c>
@@ -6472,8 +6515,11 @@
       <c r="G299">
         <v>3.3599999999999998E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299" s="3">
+        <v>0.27699990000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>34639</v>
       </c>
@@ -6492,8 +6538,11 @@
       <c r="G300">
         <v>3.3599999999999998E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300" s="3">
+        <v>0.27500019999999997</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>34669</v>
       </c>
@@ -6512,8 +6561,11 @@
       <c r="G301">
         <v>3.3599999999999998E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301" s="3">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>34700</v>
       </c>
@@ -6532,8 +6584,11 @@
       <c r="G302">
         <v>3.3099999999999997E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302" s="3">
+        <v>0.24100000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>34731</v>
       </c>
@@ -6552,8 +6607,11 @@
       <c r="G303">
         <v>3.3099999999999997E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303" s="3">
+        <v>0.22399999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>34759</v>
       </c>
@@ -6572,8 +6630,11 @@
       <c r="G304">
         <v>3.3099999999999997E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304" s="3">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>34790</v>
       </c>
@@ -6592,8 +6653,11 @@
       <c r="G305">
         <v>3.4799999999999998E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H305" s="3">
+        <v>0.20700009999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>34820</v>
       </c>
@@ -6612,8 +6676,11 @@
       <c r="G306">
         <v>3.4799999999999998E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H306" s="3">
+        <v>0.20300010000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>34851</v>
       </c>
@@ -6632,8 +6699,11 @@
       <c r="G307">
         <v>3.4799999999999998E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H307" s="3">
+        <v>0.1820001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>34881</v>
       </c>
@@ -6652,8 +6722,11 @@
       <c r="G308">
         <v>3.1800000000000002E-2</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H308" s="3">
+        <v>0.16700009999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>34912</v>
       </c>
@@ -6672,8 +6745,11 @@
       <c r="G309">
         <v>3.1800000000000002E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H309" s="3">
+        <v>0.14500009999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>34943</v>
       </c>
@@ -6692,8 +6768,11 @@
       <c r="G310">
         <v>3.1800000000000002E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H310" s="3">
+        <v>0.1319998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>34973</v>
       </c>
@@ -6712,8 +6791,11 @@
       <c r="G311">
         <v>2.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H311" s="3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>35004</v>
       </c>
@@ -6732,8 +6814,11 @@
       <c r="G312">
         <v>2.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H312" s="3">
+        <v>0.11199999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>35034</v>
       </c>
@@ -6752,8 +6837,11 @@
       <c r="G313">
         <v>2.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H313" s="3">
+        <v>0.1009999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>35065</v>
       </c>
@@ -6772,8 +6860,11 @@
       <c r="G314">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H314" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>35096</v>
       </c>
@@ -6792,8 +6883,11 @@
       <c r="G315">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H315" s="3">
+        <v>9.2999899999999996E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>35125</v>
       </c>
@@ -6812,8 +6906,11 @@
       <c r="G316">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H316" s="3">
+        <v>9.7999899999999987E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>35156</v>
       </c>
@@ -6832,8 +6929,11 @@
       <c r="G317">
         <v>2.98E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H317" s="3">
+        <v>9.69999E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>35186</v>
       </c>
@@ -6852,8 +6952,11 @@
       <c r="G318">
         <v>2.98E-2</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H318" s="3">
+        <v>8.900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>35217</v>
       </c>
@@ -6872,8 +6975,11 @@
       <c r="G319">
         <v>2.98E-2</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H319" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>35247</v>
       </c>
@@ -6892,8 +6998,11 @@
       <c r="G320">
         <v>2.93E-2</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H320" s="3">
+        <v>8.2999899999999988E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>35278</v>
       </c>
@@ -6912,8 +7021,11 @@
       <c r="G321">
         <v>2.93E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H321" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>35309</v>
       </c>
@@ -6932,8 +7044,11 @@
       <c r="G322">
         <v>2.93E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H322" s="3">
+        <v>7.400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>35339</v>
       </c>
@@ -6952,8 +7067,11 @@
       <c r="G323">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H323" s="3">
+        <v>6.9999900000000004E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>35370</v>
       </c>
@@ -6972,8 +7090,11 @@
       <c r="G324">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H324" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>35400</v>
       </c>
@@ -6992,8 +7113,11 @@
       <c r="G325">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H325" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>35431</v>
       </c>
@@ -7015,8 +7139,11 @@
       <c r="G326">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H326" s="3">
+        <v>5.9000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>35462</v>
       </c>
@@ -7038,8 +7165,11 @@
       <c r="G327">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H327" s="3">
+        <v>5.6000100000000004E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>35490</v>
       </c>
@@ -7061,8 +7191,11 @@
       <c r="G328">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H328" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>35521</v>
       </c>
@@ -7084,8 +7217,11 @@
       <c r="G329">
         <v>2.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H329" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>35551</v>
       </c>
@@ -7107,8 +7243,11 @@
       <c r="G330">
         <v>2.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H330" s="3">
+        <v>2.7999900000000001E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>35582</v>
       </c>
@@ -7130,8 +7269,11 @@
       <c r="G331">
         <v>2.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H331" s="3">
+        <v>2.7999900000000001E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>35612</v>
       </c>
@@ -7153,8 +7295,11 @@
       <c r="G332">
         <v>2.6800000000000001E-2</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H332" s="3">
+        <v>2.69999E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>35643</v>
       </c>
@@ -7176,8 +7321,11 @@
       <c r="G333">
         <v>2.6800000000000001E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H333" s="3">
+        <v>1.89999E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>35674</v>
       </c>
@@ -7199,8 +7347,11 @@
       <c r="G334">
         <v>2.6800000000000001E-2</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H334" s="3">
+        <v>1.8000100000000002E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>35704</v>
       </c>
@@ -7222,8 +7373,11 @@
       <c r="G335">
         <v>2.58E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H335" s="3">
+        <v>1.5000100000000001E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>35735</v>
       </c>
@@ -7245,8 +7399,11 @@
       <c r="G336">
         <v>2.58E-2</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H336" s="3">
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>35765</v>
       </c>
@@ -7268,8 +7425,11 @@
       <c r="G337">
         <v>2.58E-2</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H337" s="3">
+        <v>3.9998999999999998E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>35796</v>
       </c>
@@ -7291,8 +7451,11 @@
       <c r="G338">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H338" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>35827</v>
       </c>
@@ -7314,8 +7477,11 @@
       <c r="G339">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H339" s="3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>35855</v>
       </c>
@@ -7337,8 +7503,11 @@
       <c r="G340">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H340" s="3">
+        <v>6.9998999999999999E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>35886</v>
       </c>
@@ -7360,8 +7529,11 @@
       <c r="G341">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H341" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>35916</v>
       </c>
@@ -7383,8 +7555,11 @@
       <c r="G342">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H342" s="3">
+        <v>-9.9999000000000008E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>35947</v>
       </c>
@@ -7406,8 +7581,11 @@
       <c r="G343">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343" s="3">
+        <v>-1.3000100000000001E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>35977</v>
       </c>
@@ -7429,8 +7607,11 @@
       <c r="G344">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H344" s="3">
+        <v>-1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>36008</v>
       </c>
@@ -7452,8 +7633,11 @@
       <c r="G345">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H345" s="3">
+        <v>-1.3999900000000001E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>36039</v>
       </c>
@@ -7475,8 +7659,11 @@
       <c r="G346">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H346" s="3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>36069</v>
       </c>
@@ -7498,8 +7685,11 @@
       <c r="G347">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H347" s="3">
+        <v>-1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>36100</v>
       </c>
@@ -7521,8 +7711,11 @@
       <c r="G348">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H348" s="3">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>36130</v>
       </c>
@@ -7544,8 +7737,11 @@
       <c r="G349">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H349" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>36161</v>
       </c>
@@ -7567,8 +7763,11 @@
       <c r="G350">
         <v>2.0899999999999998E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H350" s="3">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>36192</v>
       </c>
@@ -7590,8 +7789,11 @@
       <c r="G351">
         <v>2.0899999999999998E-2</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H351" s="3">
+        <v>-1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>36220</v>
       </c>
@@ -7613,8 +7815,11 @@
       <c r="G352">
         <v>2.0899999999999998E-2</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H352" s="3">
+        <v>-1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>36251</v>
       </c>
@@ -7636,8 +7841,11 @@
       <c r="G353">
         <v>2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H353" s="3">
+        <v>-2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>36281</v>
       </c>
@@ -7659,8 +7867,11 @@
       <c r="G354">
         <v>2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H354" s="3">
+        <v>-2.2000099999999998E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>36312</v>
       </c>
@@ -7682,8 +7893,11 @@
       <c r="G355">
         <v>2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H355" s="3">
+        <v>-2.0999900000000002E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>36342</v>
       </c>
@@ -7705,8 +7919,11 @@
       <c r="G356">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H356" s="3">
+        <v>-1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>36373</v>
       </c>
@@ -7728,8 +7945,11 @@
       <c r="G357">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H357" s="3">
+        <v>-1.30002E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>36404</v>
       </c>
@@ -7751,8 +7971,11 @@
       <c r="G358">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H358" s="3">
+        <v>-8.0000999999999996E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>36434</v>
       </c>
@@ -7774,8 +7997,11 @@
       <c r="G359">
         <v>2.5100000000000001E-2</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H359" s="3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>36465</v>
       </c>
@@ -7797,8 +8023,11 @@
       <c r="G360">
         <v>2.5100000000000001E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H360" s="3">
+        <v>-8.9998999999999999E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>36495</v>
       </c>
@@ -7820,8 +8049,11 @@
       <c r="G361">
         <v>2.5100000000000001E-2</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H361" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>36526</v>
       </c>
@@ -7843,8 +8075,11 @@
       <c r="G362">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H362" s="3">
+        <v>-1.9999000000000002E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>36557</v>
       </c>
@@ -7866,8 +8101,11 @@
       <c r="G363">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H363" s="3">
+        <v>6.9998999999999999E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>36586</v>
       </c>
@@ -7889,8 +8127,11 @@
       <c r="G364">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H364" s="3">
+        <v>-1.9999000000000002E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>36617</v>
       </c>
@@ -7912,8 +8153,11 @@
       <c r="G365">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H365" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>36647</v>
       </c>
@@ -7935,8 +8179,11 @@
       <c r="G366">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H366" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>36678</v>
       </c>
@@ -7958,8 +8205,11 @@
       <c r="G367">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H367" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>36708</v>
       </c>
@@ -7981,8 +8231,11 @@
       <c r="G368">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H368" s="3">
+        <v>5.0000999999999995E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>36739</v>
       </c>
@@ -8004,8 +8257,11 @@
       <c r="G369">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H369" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>36770</v>
       </c>
@@ -8027,8 +8283,11 @@
       <c r="G370">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H370" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>36800</v>
       </c>
@@ -8050,8 +8309,11 @@
       <c r="G371">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H371" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>36831</v>
       </c>
@@ -8073,8 +8335,11 @@
       <c r="G372">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H372" s="3">
+        <v>1.29999E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>36861</v>
       </c>
@@ -8096,8 +8361,11 @@
       <c r="G373">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H373" s="3">
+        <v>1.49999E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>36892</v>
       </c>
@@ -8119,8 +8387,11 @@
       <c r="G374">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H374" s="3">
+        <v>1.1999899999999999E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>36923</v>
       </c>
@@ -8142,8 +8413,11 @@
       <c r="G375">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H375" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>36951</v>
       </c>
@@ -8165,8 +8439,11 @@
       <c r="G376">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H376" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>36982</v>
       </c>
@@ -8188,8 +8465,11 @@
       <c r="G377">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H377" s="3">
+        <v>1.60001E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>37012</v>
       </c>
@@ -8211,8 +8491,11 @@
       <c r="G378">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H378" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>37043</v>
       </c>
@@ -8234,8 +8517,11 @@
       <c r="G379">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H379" s="3">
+        <v>1.40001E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>37073</v>
       </c>
@@ -8257,8 +8543,11 @@
       <c r="G380">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H380" s="3">
+        <v>1.5000100000000001E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>37104</v>
       </c>
@@ -8280,8 +8569,11 @@
       <c r="G381">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H381" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>37135</v>
       </c>
@@ -8303,8 +8595,11 @@
       <c r="G382">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H382" s="3">
+        <v>-9.9989999999999996E-4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>37165</v>
       </c>
@@ -8326,8 +8621,11 @@
       <c r="G383">
         <v>1.9400000000000001E-2</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H383" s="3">
+        <v>1.9999000000000002E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>37196</v>
       </c>
@@ -8349,8 +8647,11 @@
       <c r="G384">
         <v>1.9400000000000001E-2</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H384" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>37226</v>
       </c>
@@ -8372,8 +8673,11 @@
       <c r="G385">
         <v>1.9400000000000001E-2</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H385" s="3">
+        <v>-2.9998999999999998E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>37257</v>
       </c>
@@ -8395,8 +8699,11 @@
       <c r="G386">
         <v>1.95E-2</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H386" s="3">
+        <v>-1.0119E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>37288</v>
       </c>
@@ -8418,8 +8725,11 @@
       <c r="G387">
         <v>1.95E-2</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H387" s="3">
+        <v>-2.299E-4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>37316</v>
       </c>
@@ -8441,8 +8751,11 @@
       <c r="G388">
         <v>1.95E-2</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H388" s="3">
+        <v>-7.2706000000000003E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>37347</v>
       </c>
@@ -8464,8 +8777,11 @@
       <c r="G389">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H389" s="3">
+        <v>-1.2224299999999999E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>37377</v>
       </c>
@@ -8487,8 +8803,11 @@
       <c r="G390">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H390" s="3">
+        <v>-1.0238799999999999E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>37408</v>
       </c>
@@ -8510,8 +8829,11 @@
       <c r="G391">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H391" s="3">
+        <v>-7.2335999999999998E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>37438</v>
       </c>
@@ -8533,8 +8855,11 @@
       <c r="G392">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H392" s="3">
+        <v>-9.2291000000000005E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>37469</v>
       </c>
@@ -8556,8 +8881,11 @@
       <c r="G393">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H393" s="3">
+        <v>-7.2494999999999999E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>37500</v>
       </c>
@@ -8579,8 +8907,11 @@
       <c r="G394">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H394" s="3">
+        <v>-6.2656999999999999E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>37530</v>
       </c>
@@ -8602,8 +8933,11 @@
       <c r="G395">
         <v>2.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H395" s="3">
+        <v>-7.2563999999999997E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>37561</v>
       </c>
@@ -8625,8 +8959,11 @@
       <c r="G396">
         <v>2.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H396" s="3">
+        <v>-6.2617000000000003E-3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>37591</v>
       </c>
@@ -8648,8 +8985,11 @@
       <c r="G397">
         <v>2.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H397" s="3">
+        <v>-4.2762E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>37622</v>
       </c>
@@ -8671,8 +9011,11 @@
       <c r="G398">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H398" s="3">
+        <v>3.6658000000000003E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>37653</v>
       </c>
@@ -8694,8 +9037,11 @@
       <c r="G399">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H399" s="3">
+        <v>1.6803E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>37681</v>
       </c>
@@ -8717,8 +9063,11 @@
       <c r="G400">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H400" s="3">
+        <v>8.7843999999999995E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>37712</v>
       </c>
@@ -8740,8 +9089,11 @@
       <c r="G401">
         <v>2.0199999999999999E-2</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H401" s="3">
+        <v>9.7961000000000003E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>37742</v>
       </c>
@@ -8763,8 +9115,11 @@
       <c r="G402">
         <v>2.0199999999999999E-2</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H402" s="3">
+        <v>5.7447999999999996E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>37773</v>
       </c>
@@ -8786,8 +9141,11 @@
       <c r="G403">
         <v>2.0199999999999999E-2</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H403" s="3">
+        <v>2.7001999999999998E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>37803</v>
       </c>
@@ -8809,8 +9167,11 @@
       <c r="G404">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H404" s="3">
+        <v>4.7197999999999997E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>37834</v>
       </c>
@@ -8832,8 +9193,11 @@
       <c r="G405">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H405" s="3">
+        <v>8.7266999999999987E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>37865</v>
       </c>
@@ -8855,8 +9219,11 @@
       <c r="G406">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H406" s="3">
+        <v>1.07242E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>37895</v>
       </c>
@@ -8878,8 +9245,11 @@
       <c r="G407">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H407" s="3">
+        <v>1.7784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>37926</v>
       </c>
@@ -8901,8 +9271,11 @@
       <c r="G408">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H408" s="3">
+        <v>2.89921E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>37956</v>
       </c>
@@ -8924,8 +9297,11 @@
       <c r="G409">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H409" s="3">
+        <v>3.20697E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>37987</v>
       </c>
@@ -8947,8 +9323,11 @@
       <c r="G410">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H410" s="3">
+        <v>3.20697E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>38018</v>
       </c>
@@ -8970,8 +9349,11 @@
       <c r="G411">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H411" s="3">
+        <v>2.0818099999999999E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>38047</v>
       </c>
@@ -8993,8 +9375,11 @@
       <c r="G412">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H412" s="3">
+        <v>3.00611E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>38078</v>
       </c>
@@ -9016,8 +9401,11 @@
       <c r="G413">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H413" s="3">
+        <v>3.7285900000000004E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>38108</v>
       </c>
@@ -9039,8 +9427,11 @@
       <c r="G414">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H414" s="3">
+        <v>4.3553499999999995E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>38139</v>
       </c>
@@ -9062,8 +9453,11 @@
       <c r="G415">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H415" s="3">
+        <v>4.8834600000000006E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>38169</v>
       </c>
@@ -9085,8 +9479,11 @@
       <c r="G416">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H416" s="3">
+        <v>5.1996799999999996E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>38200</v>
       </c>
@@ -9108,8 +9505,11 @@
       <c r="G417">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H417" s="3">
+        <v>5.1996900000000006E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>38231</v>
       </c>
@@ -9131,8 +9531,11 @@
       <c r="G418">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H418" s="3">
+        <v>5.09574E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>38261</v>
       </c>
@@ -9154,8 +9557,11 @@
       <c r="G419">
         <v>2.3199999999999998E-2</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H419" s="3">
+        <v>4.1583200000000001E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>38292</v>
       </c>
@@ -9177,8 +9583,11 @@
       <c r="G420">
         <v>2.3199999999999998E-2</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H420" s="3">
+        <v>2.81766E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>38322</v>
       </c>
@@ -9200,8 +9609,11 @@
       <c r="G421">
         <v>2.3199999999999998E-2</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H421" s="3">
+        <v>2.3066399999999997E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>38353</v>
       </c>
@@ -9223,8 +9635,11 @@
       <c r="G422">
         <v>2.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H422" s="3">
+        <v>1.80067E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>38384</v>
       </c>
@@ -9246,8 +9661,11 @@
       <c r="G423">
         <v>2.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H423" s="3">
+        <v>3.8407799999999999E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>38412</v>
       </c>
@@ -9269,8 +9687,11 @@
       <c r="G424">
         <v>2.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H424" s="3">
+        <v>2.5983999999999997E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>38443</v>
       </c>
@@ -9292,8 +9713,11 @@
       <c r="G425">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H425" s="3">
+        <v>1.7817E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>38473</v>
       </c>
@@ -9315,8 +9739,11 @@
       <c r="G426">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H426" s="3">
+        <v>1.67981E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>38504</v>
       </c>
@@ -9338,8 +9765,11 @@
       <c r="G427">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H427" s="3">
+        <v>1.5774300000000002E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>38534</v>
       </c>
@@ -9361,8 +9791,11 @@
       <c r="G428">
         <v>2.5399999999999999E-2</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H428" s="3">
+        <v>1.78099E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>38565</v>
       </c>
@@ -9384,8 +9817,11 @@
       <c r="G429">
         <v>2.5399999999999999E-2</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H429" s="3">
+        <v>1.2756099999999999E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>38596</v>
       </c>
@@ -9407,8 +9843,11 @@
       <c r="G430">
         <v>2.5399999999999999E-2</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H430" s="3">
+        <v>8.7492999999999998E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>38626</v>
       </c>
@@ -9430,8 +9869,11 @@
       <c r="G431">
         <v>2.7699999999999999E-2</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H431" s="3">
+        <v>1.27843E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>38657</v>
       </c>
@@ -9453,8 +9895,11 @@
       <c r="G432">
         <v>2.7699999999999999E-2</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H432" s="3">
+        <v>1.27843E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>38687</v>
       </c>
@@ -9476,8 +9921,11 @@
       <c r="G433">
         <v>2.7699999999999999E-2</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H433" s="3">
+        <v>1.58195E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>38718</v>
       </c>
@@ -9499,8 +9947,11 @@
       <c r="G434">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H434" s="3">
+        <v>2.28878E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>38749</v>
       </c>
@@ -9522,8 +9973,11 @@
       <c r="G435">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H435" s="3">
+        <v>9.8253000000000004E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>38777</v>
       </c>
@@ -9545,8 +9999,11 @@
       <c r="G436">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H436" s="3">
+        <v>9.8255000000000009E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>38808</v>
       </c>
@@ -9568,8 +10025,11 @@
       <c r="G437">
         <v>2.6700000000000002E-2</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H437" s="3">
+        <v>1.4889900000000001E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>38838</v>
       </c>
@@ -9591,8 +10051,11 @@
       <c r="G438">
         <v>2.6700000000000002E-2</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H438" s="3">
+        <v>1.5906699999999999E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>38869</v>
       </c>
@@ -9614,8 +10077,11 @@
       <c r="G439">
         <v>2.6700000000000002E-2</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H439" s="3">
+        <v>1.89789E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>38899</v>
       </c>
@@ -9637,8 +10103,11 @@
       <c r="G440">
         <v>2.9100000000000001E-2</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H440" s="3">
+        <v>1.5922000000000002E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>38930</v>
       </c>
@@ -9660,8 +10129,11 @@
       <c r="G441">
         <v>2.9100000000000001E-2</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H441" s="3">
+        <v>1.6936E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>38961</v>
       </c>
@@ -9683,8 +10155,11 @@
       <c r="G442">
         <v>2.9100000000000001E-2</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H442" s="3">
+        <v>1.4916199999999999E-2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>38991</v>
       </c>
@@ -9706,8 +10181,11 @@
       <c r="G443">
         <v>1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H443" s="3">
+        <v>1.1883600000000001E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>39022</v>
       </c>
@@ -9729,8 +10207,11 @@
       <c r="G444">
         <v>1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H444" s="3">
+        <v>1.7973200000000002E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>39052</v>
       </c>
@@ -9752,8 +10233,11 @@
       <c r="G445">
         <v>1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H445" s="3">
+        <v>2.8112400000000003E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>39083</v>
       </c>
@@ -9775,8 +10259,11 @@
       <c r="G446">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H446" s="3">
+        <v>2.2022799999999999E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>39114</v>
       </c>
@@ -9798,8 +10285,11 @@
       <c r="G447">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H447" s="3">
+        <v>2.71075E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>39142</v>
       </c>
@@ -9821,8 +10311,11 @@
       <c r="G448">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H448" s="3">
+        <v>3.3325999999999995E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>39173</v>
       </c>
@@ -9844,8 +10337,11 @@
       <c r="G449">
         <v>2.86E-2</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H449" s="3">
+        <v>3.0232199999999997E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>39203</v>
       </c>
@@ -9867,8 +10363,11 @@
       <c r="G450">
         <v>2.86E-2</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H450" s="3">
+        <v>3.4357400000000003E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>39234</v>
       </c>
@@ -9890,8 +10389,11 @@
       <c r="G451">
         <v>2.86E-2</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H451" s="3">
+        <v>4.3713499999999995E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>39264</v>
       </c>
@@ -9913,8 +10415,11 @@
       <c r="G452">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H452" s="3">
+        <v>5.6275700000000005E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>39295</v>
       </c>
@@ -9936,8 +10441,11 @@
       <c r="G453">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H453" s="3">
+        <v>6.5753699999999998E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>39326</v>
       </c>
@@ -9959,8 +10467,11 @@
       <c r="G454">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H454" s="3">
+        <v>6.3632799999999989E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>39356</v>
       </c>
@@ -9982,8 +10493,11 @@
       <c r="G455">
         <v>2.64E-2</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H455" s="3">
+        <v>6.5757800000000005E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>39387</v>
       </c>
@@ -10005,8 +10519,11 @@
       <c r="G456">
         <v>2.64E-2</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H456" s="3">
+        <v>7.0008200000000007E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>39417</v>
       </c>
@@ -10028,8 +10545,11 @@
       <c r="G457">
         <v>2.64E-2</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H457" s="3">
+        <v>6.5787300000000007E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>39448</v>
       </c>
@@ -10051,8 +10571,11 @@
       <c r="G458">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H458" s="3">
+        <v>7.1079199999999995E-2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>39479</v>
       </c>
@@ -10074,8 +10597,11 @@
       <c r="G459">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H459" s="3">
+        <v>8.8046699999999992E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>39508</v>
       </c>
@@ -10097,8 +10623,11 @@
       <c r="G460">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H460" s="3">
+        <v>8.3681599999999995E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>39539</v>
       </c>
@@ -10120,8 +10649,11 @@
       <c r="G461">
         <v>2.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H461" s="3">
+        <v>8.58511E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>39569</v>
       </c>
@@ -10143,8 +10675,11 @@
       <c r="G462">
         <v>2.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H462" s="3">
+        <v>7.8272700000000001E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>39600</v>
       </c>
@@ -10166,8 +10701,11 @@
       <c r="G463">
         <v>2.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H463" s="3">
+        <v>7.1828900000000001E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>39630</v>
       </c>
@@ -10189,8 +10727,11 @@
       <c r="G464">
         <v>3.27E-2</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H464" s="3">
+        <v>6.3330799999999993E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>39661</v>
       </c>
@@ -10212,8 +10753,11 @@
       <c r="G465">
         <v>3.27E-2</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H465" s="3">
+        <v>4.9671300000000002E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>39692</v>
       </c>
@@ -10235,8 +10779,11 @@
       <c r="G466">
         <v>3.27E-2</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H466" s="3">
+        <v>4.6531799999999998E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>39722</v>
       </c>
@@ -10258,8 +10805,11 @@
       <c r="G467">
         <v>5.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H467" s="3">
+        <v>4.0271399999999999E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>39753</v>
       </c>
@@ -10281,8 +10831,11 @@
       <c r="G468">
         <v>5.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H468" s="3">
+        <v>2.4775700000000001E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>39783</v>
       </c>
@@ -10304,8 +10857,11 @@
       <c r="G469">
         <v>5.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H469" s="3">
+        <v>1.2600199999999999E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>39814</v>
       </c>
@@ -10327,8 +10883,11 @@
       <c r="G470">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H470" s="3">
+        <v>9.5984E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>39845</v>
       </c>
@@ -10350,8 +10909,11 @@
       <c r="G471">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H471" s="3">
+        <v>-1.5986E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>39873</v>
       </c>
@@ -10373,8 +10935,11 @@
       <c r="G472">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H472" s="3">
+        <v>-1.2022100000000001E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>39904</v>
       </c>
@@ -10396,8 +10961,11 @@
       <c r="G473">
         <v>1.38E-2</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H473" s="3">
+        <v>-1.49832E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>39934</v>
       </c>
@@ -10419,8 +10987,11 @@
       <c r="G474">
         <v>1.38E-2</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H474" s="3">
+        <v>-1.3994100000000001E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>39965</v>
       </c>
@@ -10442,8 +11013,11 @@
       <c r="G475">
         <v>1.38E-2</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H475" s="3">
+        <v>-1.69582E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>39995</v>
       </c>
@@ -10465,8 +11039,11 @@
       <c r="G476">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H476" s="3">
+        <v>-1.7940299999999999E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>40026</v>
       </c>
@@ -10488,8 +11065,11 @@
       <c r="G477">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H477" s="3">
+        <v>-1.2041900000000001E-2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>40057</v>
       </c>
@@ -10511,8 +11091,11 @@
       <c r="G478">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H478" s="3">
+        <v>-8.0900999999999994E-3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>40087</v>
       </c>
@@ -10534,8 +11117,11 @@
       <c r="G479">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H479" s="3">
+        <v>-6.0758000000000001E-3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>40118</v>
       </c>
@@ -10557,8 +11143,11 @@
       <c r="G480">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H480" s="3">
+        <v>4.9547000000000002E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>40148</v>
       </c>
@@ -10580,8 +11169,11 @@
       <c r="G481">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H481" s="3">
+        <v>1.7039200000000001E-2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>40179</v>
       </c>
@@ -10603,8 +11195,11 @@
       <c r="G482">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H482" s="3">
+        <v>1.39559E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>40210</v>
       </c>
@@ -10626,8 +11221,11 @@
       <c r="G483">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H483" s="3">
+        <v>2.6182400000000002E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>40238</v>
       </c>
@@ -10649,8 +11247,11 @@
       <c r="G484">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H484" s="3">
+        <v>2.2012399999999998E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>40269</v>
       </c>
@@ -10672,8 +11273,11 @@
       <c r="G485">
         <v>1.7399999999999999E-2</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H485" s="3">
+        <v>2.6150300000000001E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>40299</v>
       </c>
@@ -10695,8 +11299,11 @@
       <c r="G486">
         <v>1.7399999999999999E-2</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H486" s="3">
+        <v>2.8231799999999998E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>40330</v>
       </c>
@@ -10718,8 +11325,11 @@
       <c r="G487">
         <v>1.7399999999999999E-2</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H487" s="3">
+        <v>2.7163400000000001E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>40360</v>
       </c>
@@ -10741,8 +11351,11 @@
       <c r="G488">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H488" s="3">
+        <v>3.1292300000000002E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>40391</v>
       </c>
@@ -10764,8 +11377,11 @@
       <c r="G489">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H489" s="3">
+        <v>3.2282000000000005E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>40422</v>
       </c>
@@ -10787,8 +11403,11 @@
       <c r="G490">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H490" s="3">
+        <v>3.43491E-2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>40452</v>
       </c>
@@ -10810,8 +11429,11 @@
       <c r="G491">
         <v>1.6299999999999999E-2</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H491" s="3">
+        <v>4.26314E-2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>40483</v>
       </c>
@@ -10833,8 +11455,11 @@
       <c r="G492">
         <v>1.6299999999999999E-2</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H492" s="3">
+        <v>5.0920899999999998E-2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>40513</v>
       </c>
@@ -10856,8 +11481,11 @@
       <c r="G493">
         <v>1.6299999999999999E-2</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H493" s="3">
+        <v>4.5713400000000001E-2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>40544</v>
       </c>
@@ -10879,8 +11507,11 @@
       <c r="G494">
         <v>1.8499999999999999E-2</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H494" s="3">
+        <v>4.9954999999999999E-2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>40575</v>
       </c>
@@ -10902,8 +11533,11 @@
       <c r="G495">
         <v>1.8499999999999999E-2</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H495" s="3">
+        <v>5.0708299999999998E-2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>40603</v>
       </c>
@@ -10925,8 +11559,11 @@
       <c r="G496">
         <v>1.8499999999999999E-2</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H496" s="3">
+        <v>5.6045800000000007E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>40634</v>
       </c>
@@ -10948,8 +11585,11 @@
       <c r="G497">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H497" s="3">
+        <v>5.4955100000000007E-2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>40664</v>
       </c>
@@ -10971,8 +11611,11 @@
       <c r="G498">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H498" s="3">
+        <v>5.70482E-2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>40695</v>
       </c>
@@ -10994,8 +11637,11 @@
       <c r="G499">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H499" s="3">
+        <v>6.666699999999999E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>40725</v>
       </c>
@@ -11017,8 +11663,11 @@
       <c r="G500">
         <v>1.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H500" s="3">
+        <v>6.7057000000000005E-2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>40756</v>
       </c>
@@ -11040,8 +11689,11 @@
       <c r="G501">
         <v>1.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H501" s="3">
+        <v>6.3743599999999997E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>40787</v>
       </c>
@@ -11063,8 +11715,11 @@
       <c r="G502">
         <v>1.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H502" s="3">
+        <v>6.2380699999999997E-2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>40817</v>
       </c>
@@ -11086,8 +11741,11 @@
       <c r="G503">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H503" s="3">
+        <v>5.5961999999999998E-2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>40848</v>
       </c>
@@ -11109,8 +11767,11 @@
       <c r="G504">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H504" s="3">
+        <v>4.2528199999999995E-2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>40878</v>
       </c>
@@ -11132,8 +11793,11 @@
       <c r="G505">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H505" s="3">
+        <v>4.0273099999999999E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>40909</v>
       </c>
@@ -11155,8 +11819,11 @@
       <c r="G506">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H506" s="3">
+        <v>4.5410599999999995E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>40940</v>
       </c>
@@ -11178,8 +11845,11 @@
       <c r="G507">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H507" s="3">
+        <v>3.1260400000000001E-2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>40969</v>
       </c>
@@ -11201,8 +11871,11 @@
       <c r="G508">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H508" s="3">
+        <v>3.52465E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>41000</v>
       </c>
@@ -11224,8 +11897,11 @@
       <c r="G509">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H509" s="3">
+        <v>3.3251499999999996E-2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>41030</v>
       </c>
@@ -11247,8 +11923,11 @@
       <c r="G510">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H510" s="3">
+        <v>2.93525E-2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>41061</v>
       </c>
@@ -11270,8 +11949,11 @@
       <c r="G511">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H511" s="3">
+        <v>2.0555900000000002E-2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>41091</v>
       </c>
@@ -11293,8 +11975,11 @@
       <c r="G512">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H512" s="3">
+        <v>1.7045399999999999E-2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>41122</v>
       </c>
@@ -11316,8 +12001,11 @@
       <c r="G513">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H513" s="3">
+        <v>2.0780699999999999E-2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>41153</v>
       </c>
@@ -11339,8 +12027,11 @@
       <c r="G514">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H514" s="3">
+        <v>1.91021E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>41183</v>
       </c>
@@ -11362,8 +12053,11 @@
       <c r="G515">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H515" s="3">
+        <v>1.70814E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>41214</v>
       </c>
@@ -11385,8 +12079,11 @@
       <c r="G516">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H516" s="3">
+        <v>2.0696200000000001E-2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>41244</v>
       </c>
@@ -11408,8 +12105,11 @@
       <c r="G517">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H517" s="3">
+        <v>2.5313099999999998E-2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>41275</v>
       </c>
@@ -11431,8 +12131,11 @@
       <c r="G518">
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H518" s="3">
+        <v>2.02483E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>41306</v>
       </c>
@@ -11454,8 +12157,11 @@
       <c r="G519">
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H519" s="3">
+        <v>3.2421499999999999E-2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>41334</v>
       </c>
@@ -11477,8 +12183,11 @@
       <c r="G520">
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H520" s="3">
+        <v>2.12491E-2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>41365</v>
       </c>
@@ -11500,8 +12209,11 @@
       <c r="G521">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H521" s="3">
+        <v>2.4213800000000001E-2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>41395</v>
       </c>
@@ -11523,8 +12235,11 @@
       <c r="G522">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H522" s="3">
+        <v>2.0910000000000002E-2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>41426</v>
       </c>
@@ -11546,8 +12261,11 @@
       <c r="G523">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H523" s="3">
+        <v>2.6618699999999999E-2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>41456</v>
       </c>
@@ -11569,8 +12287,11 @@
       <c r="G524">
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H524" s="3">
+        <v>2.6676999999999999E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>41487</v>
       </c>
@@ -11592,8 +12313,11 @@
       <c r="G525">
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H525" s="3">
+        <v>2.5153500000000002E-2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>41518</v>
       </c>
@@ -11615,8 +12339,11 @@
       <c r="G526">
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H526" s="3">
+        <v>3.0161899999999998E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>41548</v>
       </c>
@@ -11638,8 +12365,11 @@
       <c r="G527">
         <v>1.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H527" s="3">
+        <v>3.2274999999999998E-2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>41579</v>
       </c>
@@ -11661,8 +12391,11 @@
       <c r="G528">
         <v>1.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H528" s="3">
+        <v>2.9520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>41609</v>
       </c>
@@ -11684,8 +12417,11 @@
       <c r="G529">
         <v>1.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H529" s="3">
+        <v>2.5065900000000002E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>41640</v>
       </c>
@@ -11707,8 +12443,11 @@
       <c r="G530">
         <v>1.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H530" s="3">
+        <v>2.5070000000000002E-2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>41671</v>
       </c>
@@ -11730,8 +12469,11 @@
       <c r="G531">
         <v>1.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H531" s="3">
+        <v>1.9062200000000001E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>41699</v>
       </c>
@@ -11753,8 +12495,11 @@
       <c r="G532">
         <v>1.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H532" s="3">
+        <v>2.3119900000000002E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>41730</v>
       </c>
@@ -11776,8 +12521,11 @@
       <c r="G533">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H533" s="3">
+        <v>1.69588E-2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>41760</v>
       </c>
@@ -11799,8 +12547,11 @@
       <c r="G534">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H534" s="3">
+        <v>2.4128400000000001E-2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>41791</v>
       </c>
@@ -11822,8 +12573,11 @@
       <c r="G535">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H535" s="3">
+        <v>2.3086499999999999E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>41821</v>
       </c>
@@ -11845,8 +12599,11 @@
       <c r="G536">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H536" s="3">
+        <v>2.2075900000000002E-2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>41852</v>
       </c>
@@ -11868,8 +12625,11 @@
       <c r="G537">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H537" s="3">
+        <v>1.90314E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>41883</v>
       </c>
@@ -11891,8 +12651,11 @@
       <c r="G538">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H538" s="3">
+        <v>1.6111200000000003E-2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>41913</v>
       </c>
@@ -11914,8 +12677,11 @@
       <c r="G539">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H539" s="3">
+        <v>1.50919E-2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>41944</v>
       </c>
@@ -11937,8 +12703,11 @@
       <c r="G540">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H540" s="3">
+        <v>1.30297E-2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>41974</v>
       </c>
@@ -11960,8 +12729,11 @@
       <c r="G541">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H541" s="3">
+        <v>1.4097E-2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>42005</v>
       </c>
@@ -11983,8 +12755,11 @@
       <c r="G542">
         <v>1.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H542" s="3">
+        <v>7.0994000000000005E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>42036</v>
       </c>
@@ -12006,8 +12781,11 @@
       <c r="G543">
         <v>1.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H543" s="3">
+        <v>1.4127099999999998E-2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>42064</v>
       </c>
@@ -12029,8 +12807,11 @@
       <c r="G544">
         <v>1.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H544" s="3">
+        <v>1.3184599999999999E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>42095</v>
       </c>
@@ -12052,8 +12833,11 @@
       <c r="G545">
         <v>1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H545" s="3">
+        <v>1.5274900000000001E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>42125</v>
       </c>
@@ -12075,8 +12859,11 @@
       <c r="G546">
         <v>1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H546" s="3">
+        <v>1.22075E-2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>42156</v>
       </c>
@@ -12098,8 +12885,11 @@
       <c r="G547">
         <v>1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H547" s="3">
+        <v>1.3238300000000001E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>42186</v>
       </c>
@@ -12121,8 +12911,11 @@
       <c r="G548">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H548" s="3">
+        <v>1.73116E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>42217</v>
       </c>
@@ -12144,8 +12937,11 @@
       <c r="G549">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H549" s="3">
+        <v>2.0325199999999998E-2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>42248</v>
       </c>
@@ -12167,8 +12963,11 @@
       <c r="G550">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H550" s="3">
+        <v>1.6177999999999998E-2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>42278</v>
       </c>
@@ -12190,8 +12989,11 @@
       <c r="G551">
         <v>1.72E-2</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H551" s="3">
+        <v>1.2133499999999998E-2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>42309</v>
       </c>
@@ -12213,8 +13015,11 @@
       <c r="G552">
         <v>1.72E-2</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H552" s="3">
+        <v>1.5213000000000001E-2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>42339</v>
       </c>
@@ -12236,8 +13041,11 @@
       <c r="G553">
         <v>1.72E-2</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H553" s="3">
+        <v>1.6161600000000002E-2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>42370</v>
       </c>
@@ -12259,8 +13067,11 @@
       <c r="G554">
         <v>1.55E-2</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H554" s="3">
+        <v>1.8126899999999998E-2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>42401</v>
       </c>
@@ -12282,8 +13093,11 @@
       <c r="G555">
         <v>1.55E-2</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H555" s="3">
+        <v>2.18905E-2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>42430</v>
       </c>
@@ -12305,8 +13119,11 @@
       <c r="G556">
         <v>1.55E-2</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H556" s="3">
+        <v>2.3022999999999998E-2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>42461</v>
       </c>
@@ -12328,8 +13145,11 @@
       <c r="G557">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H557" s="3">
+        <v>2.3069199999999998E-2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>42491</v>
       </c>
@@ -12351,8 +13171,11 @@
       <c r="G558">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H558" s="3">
+        <v>2.1105499999999999E-2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>42522</v>
       </c>
@@ -12374,8 +13197,11 @@
       <c r="G559">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H559" s="3">
+        <v>1.9095500000000001E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>42552</v>
       </c>
@@ -12397,8 +13223,11 @@
       <c r="G560">
         <v>2.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H560" s="3">
+        <v>1.7017000000000001E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>42583</v>
       </c>
@@ -12420,8 +13249,11 @@
       <c r="G561">
         <v>2.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H561" s="3">
+        <v>1.29482E-2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>42614</v>
       </c>
@@ -12443,8 +13275,11 @@
       <c r="G562">
         <v>2.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H562" s="3">
+        <v>1.8905499999999999E-2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>42644</v>
       </c>
@@ -12466,8 +13301,11 @@
       <c r="G563">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H563" s="3">
+        <v>2.1978000000000001E-2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>42675</v>
       </c>
@@ -12489,8 +13327,11 @@
       <c r="G564">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H564" s="3">
+        <v>2.2976999999999997E-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>42705</v>
       </c>
@@ -12512,8 +13353,11 @@
       <c r="G565">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H565" s="3">
+        <v>1.9880700000000001E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>42736</v>
       </c>
@@ -12535,8 +13379,11 @@
       <c r="G566">
         <v>2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H566" s="3">
+        <v>2.57171E-2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>42767</v>
       </c>
@@ -12558,8 +13405,11 @@
       <c r="G567">
         <v>2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H567" s="3">
+        <v>7.7897000000000001E-3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>42795</v>
       </c>
@@ -12581,8 +13431,11 @@
       <c r="G568">
         <v>2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H568" s="3">
+        <v>9.7847000000000003E-3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>42826</v>
       </c>
@@ -12604,8 +13457,11 @@
       <c r="G569">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H569" s="3">
+        <v>1.1764699999999999E-2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>42856</v>
       </c>
@@ -12627,8 +13483,11 @@
       <c r="G570">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H570" s="3">
+        <v>1.6732299999999999E-2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>42887</v>
       </c>
@@ -12650,8 +13509,11 @@
       <c r="G571">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H571" s="3">
+        <v>1.67653E-2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>42917</v>
       </c>
@@ -12673,8 +13535,11 @@
       <c r="G572">
         <v>2.07E-2</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H572" s="3">
+        <v>1.37795E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>42948</v>
       </c>
@@ -12696,8 +13561,11 @@
       <c r="G573">
         <v>2.07E-2</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H573" s="3">
+        <v>1.7699100000000002E-2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>42979</v>
       </c>
@@ -12719,8 +13587,11 @@
       <c r="G574">
         <v>2.07E-2</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H574" s="3">
+        <v>1.6601600000000001E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>43009</v>
       </c>
@@ -12742,8 +13613,11 @@
       <c r="G575">
         <v>2.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H575" s="3">
+        <v>1.85728E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>43040</v>
       </c>
@@ -12765,8 +13639,11 @@
       <c r="G576">
         <v>2.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H576" s="3">
+        <v>1.7578099999999999E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>43070</v>
       </c>
@@ -12788,8 +13665,11 @@
       <c r="G577">
         <v>2.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H577" s="3">
+        <v>1.85185E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>43101</v>
       </c>
@@ -12811,8 +13691,11 @@
       <c r="G578">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H578" s="3">
+        <v>1.44648E-2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>43132</v>
       </c>
@@ -12834,8 +13717,11 @@
       <c r="G579">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H579" s="3">
+        <v>2.8985500000000001E-2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>43160</v>
       </c>
@@ -12857,8 +13743,11 @@
       <c r="G580">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H580" s="3">
+        <v>2.0348799999999997E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>43191</v>
       </c>
@@ -12880,8 +13769,11 @@
       <c r="G581">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H581" s="3">
+        <v>1.8410899999999997E-2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>43221</v>
       </c>
@@ -12903,8 +13795,11 @@
       <c r="G582">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H582" s="3">
+        <v>1.5488900000000002E-2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>43252</v>
       </c>
@@ -12926,8 +13821,11 @@
       <c r="G583">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H583" s="3">
+        <v>1.74588E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>43282</v>
       </c>
@@ -12949,8 +13847,11 @@
       <c r="G584">
         <v>2.2599999999999999E-2</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H584" s="3">
+        <v>2.1359200000000002E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>43313</v>
       </c>
@@ -12972,8 +13873,11 @@
       <c r="G585">
         <v>2.2599999999999999E-2</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H585" s="3">
+        <v>2.3188399999999998E-2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>43344</v>
       </c>
@@ -12995,8 +13899,11 @@
       <c r="G586">
         <v>2.2599999999999999E-2</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H586" s="3">
+        <v>2.4015399999999999E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>43374</v>
       </c>
@@ -13018,8 +13925,11 @@
       <c r="G587">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H587" s="3">
+        <v>2.4952000000000002E-2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>43405</v>
       </c>
@@ -13041,8 +13951,11 @@
       <c r="G588">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H588" s="3">
+        <v>2.1113200000000002E-2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>43435</v>
       </c>
@@ -13064,8 +13977,11 @@
       <c r="G589">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H589" s="3">
+        <v>1.9138800000000001E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>43466</v>
       </c>
@@ -13087,8 +14003,11 @@
       <c r="G590">
         <v>1.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H590" s="3">
+        <v>1.7110300000000002E-2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>43497</v>
       </c>
@@ -13110,8 +14029,11 @@
       <c r="G591">
         <v>1.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H591" s="3">
+        <v>1.50235E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>43525</v>
       </c>
@@ -13133,8 +14055,11 @@
       <c r="G592">
         <v>1.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H592" s="3">
+        <v>2.2792E-2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>43556</v>
       </c>
@@ -13156,8 +14081,11 @@
       <c r="G593">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H593" s="3">
+        <v>2.5689799999999999E-2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>43586</v>
       </c>
@@ -13179,8 +14107,11 @@
       <c r="G594">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H594" s="3">
+        <v>2.7645400000000001E-2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>43617</v>
       </c>
@@ -13202,8 +14133,11 @@
       <c r="G595">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H595" s="3">
+        <v>2.66921E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>43647</v>
       </c>
@@ -13225,8 +14159,11 @@
       <c r="G596">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H596" s="3">
+        <v>2.7566500000000001E-2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>43678</v>
       </c>
@@ -13248,8 +14185,11 @@
       <c r="G597">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H597" s="3">
+        <v>2.8328600000000002E-2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>43709</v>
       </c>
@@ -13271,8 +14211,11 @@
       <c r="G598">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H598" s="3">
+        <v>3.0018799999999998E-2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>43739</v>
       </c>
@@ -13294,8 +14237,11 @@
       <c r="G599">
         <v>2.06E-2</v>
       </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H599" s="3">
+        <v>3.7453199999999999E-2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>43770</v>
       </c>
@@ -13317,8 +14263,11 @@
       <c r="G600">
         <v>2.06E-2</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H600" s="3">
+        <v>4.5112800000000002E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>43800</v>
       </c>
@@ -13340,8 +14289,11 @@
       <c r="G601">
         <v>2.06E-2</v>
       </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H601" s="3">
+        <v>4.4131499999999997E-2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>43831</v>
       </c>
@@ -13363,8 +14315,11 @@
       <c r="G602">
         <v>2.1100000000000001E-2</v>
       </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H602" s="3">
+        <v>5.42056E-2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>43862</v>
       </c>
@@ -13386,8 +14341,11 @@
       <c r="G603">
         <v>2.1100000000000001E-2</v>
       </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H603" s="3">
+        <v>5.18039E-2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>43891</v>
       </c>
@@ -13409,8 +14367,11 @@
       <c r="G604">
         <v>2.1100000000000001E-2</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H604" s="3">
+        <v>4.2711199999999998E-2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>43922</v>
       </c>
@@ -13432,8 +14393,11 @@
       <c r="G605">
         <v>7.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H605" s="3">
+        <v>3.2467500000000003E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>43952</v>
       </c>
@@ -13455,8 +14419,11 @@
       <c r="G606">
         <v>7.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H606" s="3">
+        <v>2.41187E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>43983</v>
       </c>
@@ -13478,8 +14445,11 @@
       <c r="G607">
         <v>7.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H607" s="3">
+        <v>2.5069599999999997E-2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44013</v>
       </c>
@@ -13501,8 +14471,11 @@
       <c r="G608">
         <v>1.83E-2</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H608" s="3">
+        <v>1.75763E-2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44044</v>
       </c>
@@ -13524,8 +14497,11 @@
       <c r="G609">
         <v>1.83E-2</v>
       </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H609" s="3">
+        <v>2.3875099999999996E-2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44075</v>
       </c>
@@ -13547,8 +14523,11 @@
       <c r="G610">
         <v>1.83E-2</v>
       </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H610" s="3">
+        <v>1.7304200000000002E-2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44105</v>
       </c>
@@ -13570,8 +14549,11 @@
       <c r="G611">
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H611" s="3">
+        <v>5.4152000000000002E-3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44136</v>
       </c>
@@ -13593,8 +14575,11 @@
       <c r="G612">
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H612" s="3">
+        <v>-4.4964000000000002E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44166</v>
       </c>
@@ -13616,8 +14601,11 @@
       <c r="G613">
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H613" s="3">
+        <v>2.6978000000000002E-3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44197</v>
       </c>
@@ -13639,8 +14627,11 @@
       <c r="G614">
         <v>2.23E-2</v>
       </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H614" s="3">
+        <v>-2.2163E-3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44228</v>
       </c>
@@ -13662,8 +14653,11 @@
       <c r="G615">
         <v>2.23E-2</v>
       </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H615" s="3">
+        <v>-4.2278000000000003E-3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44256</v>
       </c>
@@ -13685,8 +14679,11 @@
       <c r="G616">
         <v>2.23E-2</v>
       </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H616" s="3">
+        <v>3.2190999999999999E-3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44287</v>
       </c>
@@ -13708,8 +14705,11 @@
       <c r="G617">
         <v>2.6100000000000002E-2</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H617" s="3">
+        <v>9.2264000000000009E-3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44317</v>
       </c>
@@ -13731,8 +14731,11 @@
       <c r="G618">
         <v>2.6100000000000002E-2</v>
       </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H618" s="3">
+        <v>1.6443799999999998E-2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44348</v>
       </c>
@@ -13754,8 +14757,11 @@
       <c r="G619">
         <v>2.6100000000000002E-2</v>
       </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H619" s="3">
+        <v>1.24022E-2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44378</v>
       </c>
@@ -13777,8 +14783,11 @@
       <c r="G620">
         <v>3.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H620" s="3">
+        <v>1.91255E-2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44409</v>
       </c>
@@ -13800,8 +14809,11 @@
       <c r="G621">
         <v>3.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H621" s="3">
+        <v>6.4161000000000001E-3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44440</v>
       </c>
@@ -13823,8 +14835,11 @@
       <c r="G622">
         <v>3.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H622" s="3">
+        <v>4.6140999999999995E-3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44470</v>
       </c>
@@ -13846,8 +14861,11 @@
       <c r="G623">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H623" s="3">
+        <v>1.4328499999999999E-2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44501</v>
       </c>
@@ -13869,8 +14887,11 @@
       <c r="G624">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H624" s="3">
+        <v>2.4773299999999998E-2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44531</v>
       </c>
@@ -13892,8 +14913,11 @@
       <c r="G625">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H625" s="3">
+        <v>1.4418800000000001E-2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44562</v>
       </c>
@@ -13915,8 +14939,11 @@
       <c r="G626">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H626" s="3">
+        <v>9.9112000000000002E-3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44593</v>
       </c>
@@ -13938,8 +14965,11 @@
       <c r="G627">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H627" s="3">
+        <v>9.8516999999999997E-3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44621</v>
       </c>
@@ -13961,8 +14991,11 @@
       <c r="G628">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H628" s="3">
+        <v>1.48516E-2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44652</v>
       </c>
@@ -13984,8 +15017,11 @@
       <c r="G629">
         <v>4.6199999999999998E-2</v>
       </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H629" s="3">
+        <v>2.1846899999999999E-2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44682</v>
       </c>
@@ -14007,8 +15043,11 @@
       <c r="G630">
         <v>4.6199999999999998E-2</v>
       </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H630" s="3">
+        <v>2.0874100000000003E-2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44713</v>
       </c>
@@ -14030,8 +15069,11 @@
       <c r="G631">
         <v>4.6199999999999998E-2</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H631" s="3">
+        <v>2.4949599999999999E-2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44743</v>
       </c>
@@ -14053,8 +15095,11 @@
       <c r="G632">
         <v>4.4900000000000002E-2</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H632" s="3">
+        <v>2.68662E-2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44774</v>
       </c>
@@ -14076,8 +15121,11 @@
       <c r="G633">
         <v>4.4900000000000002E-2</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H633" s="3">
+        <v>2.4850400000000002E-2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44805</v>
       </c>
@@ -14099,8 +15147,11 @@
       <c r="G634">
         <v>4.4900000000000002E-2</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H634" s="3">
+        <v>2.7833100000000003E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44835</v>
       </c>
@@ -14122,8 +15173,11 @@
       <c r="G635">
         <v>4.1200000000000001E-2</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H635" s="3">
+        <v>2.1717499999999997E-2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44866</v>
       </c>
@@ -14145,8 +15199,11 @@
       <c r="G636">
         <v>4.1200000000000001E-2</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H636" s="3">
+        <v>1.5732200000000002E-2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44896</v>
       </c>
@@ -14168,8 +15225,11 @@
       <c r="G637">
         <v>4.1200000000000001E-2</v>
       </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H637" s="3">
+        <v>1.77521E-2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44927</v>
       </c>
@@ -14191,8 +15251,11 @@
       <c r="G638">
         <v>3.1399999999999997E-2</v>
       </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H638" s="3">
+        <v>2.0607799999999999E-2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44958</v>
       </c>
@@ -14214,8 +15277,11 @@
       <c r="G639">
         <v>3.1399999999999997E-2</v>
       </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H639" s="3">
+        <v>9.7564000000000001E-3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44986</v>
       </c>
@@ -14237,8 +15303,11 @@
       <c r="G640">
         <v>3.1399999999999997E-2</v>
       </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H640" s="3">
+        <v>6.8298999999999999E-3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>45017</v>
       </c>
@@ -14260,8 +15329,11 @@
       <c r="G641">
         <v>3.09E-2</v>
       </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H641" s="3">
+        <v>9.7229999999999994E-4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>45047</v>
       </c>
@@ -14283,8 +15355,11 @@
       <c r="G642">
         <v>3.09E-2</v>
       </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H642" s="3">
+        <v>1.9475E-3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>45078</v>
       </c>
@@ -14306,8 +15381,11 @@
       <c r="G643">
         <v>3.09E-2</v>
       </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H643" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>45108</v>
       </c>
@@ -14329,8 +15407,11 @@
       <c r="G644">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H644" s="3">
+        <v>-2.9074999999999999E-3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>45139</v>
       </c>
@@ -14352,8 +15433,11 @@
       <c r="G645">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H645" s="3">
+        <v>9.7040000000000006E-4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>45170</v>
       </c>
@@ -14375,8 +15459,11 @@
       <c r="G646">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H646" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>45200</v>
       </c>
@@ -14398,8 +15485,11 @@
       <c r="G647">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H647" s="3">
+        <v>-1.9323999999999999E-3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>45231</v>
       </c>
@@ -14421,8 +15511,11 @@
       <c r="G648">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H648" s="3">
+        <v>-4.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>45261</v>
       </c>
@@ -14444,8 +15537,11 @@
       <c r="G649">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H649" s="3">
+        <v>-2.9074999999999999E-3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>45292</v>
       </c>
@@ -14467,8 +15563,11 @@
       <c r="G650">
         <v>2.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H650" s="3">
+        <v>-8.6537000000000003E-3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>45323</v>
       </c>
@@ -14490,8 +15589,11 @@
       <c r="G651">
         <v>2.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H651" s="3">
+        <v>6.7630999999999993E-3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>45352</v>
       </c>
@@ -14513,8 +15615,11 @@
       <c r="G652">
         <v>2.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H652" s="3">
+        <v>9.6860000000000002E-4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>45383</v>
       </c>
@@ -14536,8 +15641,11 @@
       <c r="G653">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H653" s="3">
+        <v>1.9417999999999998E-3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>45413</v>
       </c>
@@ -14559,8 +15667,11 @@
       <c r="G654">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H654" s="3">
+        <v>2.9160000000000002E-3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>45444</v>
       </c>
@@ -14582,8 +15693,11 @@
       <c r="G655">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H655" s="3">
+        <v>1.9475E-3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>45474</v>
       </c>
@@ -14605,8 +15719,11 @@
       <c r="G656">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H656" s="3">
+        <v>4.8596999999999998E-3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>45505</v>
       </c>
@@ -14628,8 +15745,11 @@
       <c r="G657">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H657" s="3">
+        <v>5.8133000000000004E-3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>45536</v>
       </c>
@@ -14651,8 +15771,11 @@
       <c r="G658">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H658" s="3">
+        <v>3.8677E-3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>45566</v>
       </c>
@@ -14674,8 +15797,11 @@
       <c r="G659">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H659" s="3">
+        <v>2.9038000000000002E-3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>45597</v>
       </c>
@@ -14697,8 +15823,11 @@
       <c r="G660">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H660" s="3">
+        <v>1.9456E-3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>45627</v>
       </c>
@@ -14720,8 +15849,11 @@
       <c r="G661">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H661" s="3">
+        <v>9.7229999999999994E-4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>45658</v>
       </c>
@@ -14743,8 +15875,11 @@
       <c r="G662">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H662" s="3">
+        <v>4.8494000000000002E-3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>45689</v>
       </c>
@@ -14766,8 +15901,11 @@
       <c r="G663">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H663" s="3">
+        <v>-7.6770000000000007E-3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>45717</v>
       </c>
@@ -14789,8 +15927,11 @@
       <c r="G664">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H664" s="3">
+        <v>-9.6769999999999994E-4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>45748</v>
       </c>
@@ -14812,8 +15953,11 @@
       <c r="G665">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H665" s="3">
+        <v>-7.4620000000000003E-4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>45778</v>
       </c>
@@ -14835,8 +15979,9 @@
       <c r="G666">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H666" s="3"/>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>45809</v>
       </c>
@@ -14858,8 +16003,9 @@
       <c r="G667">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H667" s="3"/>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>45839</v>
       </c>
@@ -14881,8 +16027,9 @@
       <c r="G668">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H668" s="3"/>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>45870</v>
       </c>
@@ -14904,8 +16051,9 @@
       <c r="G669">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H669" s="3"/>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>45901</v>
       </c>
@@ -14927,8 +16075,9 @@
       <c r="G670">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H670" s="3"/>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>45931</v>
       </c>
@@ -14950,6 +16099,7 @@
       <c r="G671">
         <v>2.8799999999999999E-2</v>
       </c>
+      <c r="H671" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data_Ryan/Inflation_forecasts.xlsx
+++ b/Data_Ryan/Inflation_forecasts.xlsx
@@ -16385,4 +16385,225 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100958F3DD216C04B45B375149FC6D7031B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a97155ece4e73437d6ac9e8c2b521dba">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" xmlns:ns3="d1f15cdc-886a-4af0-9db5-f84c8d88527b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18d81164747ea7b7c52960c73b4ce974" ns2:_="" ns3:_="">
+    <xsd:import namespace="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
+    <xsd:import namespace="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7c938953-97e4-410d-a323-cf9a87d86f1a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1f15cdc-886a-4af0-9db5-f84c8d88527b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{502f970b-60dd-4ae0-97cd-587faabb26c3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d1f15cdc-886a-4af0-9db5-f84c8d88527b">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d1f15cdc-886a-4af0-9db5-f84c8d88527b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63fe9c16-2f69-4d2d-9e53-848c714d6ac9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A37637AB-058F-4D63-82F0-C012BA9903E2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07784603-07F6-4858-9FB9-DC3B788605FB}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA30D2-86FA-42BA-B583-AD31A08F30F1}"/>
 </file>